--- a/表格分析.xlsx
+++ b/表格分析.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BBF14E-78E1-433A-B3FB-CEFBDCDB4A76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6596C7-9AFB-4B16-B8AB-8CBCBE8C8121}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="金钟罩" sheetId="1" r:id="rId1"/>
-    <sheet name="飞盾" sheetId="2" r:id="rId2"/>
+    <sheet name="随记" sheetId="4" r:id="rId1"/>
+    <sheet name="金钟罩" sheetId="1" r:id="rId2"/>
+    <sheet name="飞盾" sheetId="2" r:id="rId3"/>
+    <sheet name="棒棒糖" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>键位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +130,63 @@
   </si>
   <si>
     <t>左键抬起，1,2,3,4，左键，G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=黑人。2,,4=辅助技能，左键=拾取，右键=传送，3黑洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外挂制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航制作的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.从D3的接口中获取地图，然后制作导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有对应接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.tab键打开D3地图，然后获取屏幕颜色来还原出地图信息
+a.使用c#来获取地图路径，网上找找有没有相应的插件（没有）
+b.获取屏幕的颜色，转变为点阵数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上下一个notped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ahk欠缺部分：
+1.法师陨石语音提示
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助武僧要做的事：
+1.加防加血
+2.注意法师黑人时间
+3.黑人时间黏上精英
+4.白人时间站法师旁边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助蛮要做的事：
+1.关闭防火墙
+2.开启插件
+3.练习聚怪
+4.开启语音提示好定时释放盾墙&amp;配合法师陨石踩地板
+5.选定打怪位置，一般在法师黑人时间还有1/3时定位开始聚怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论：需要用宏侦测和提示法师黑人时间和白人时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,15 +219,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -176,11 +241,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,10 +278,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,6 +586,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCB4531-922F-49DB-980A-3D1992CA61BB}">
+  <dimension ref="C1:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="41.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="11">
+        <v>43642</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="11"/>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="3:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="F1:F5"/>
+    <mergeCell ref="F6:F23"/>
+    <mergeCell ref="F24:F34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F9"/>
   <sheetViews>
@@ -498,28 +776,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -582,10 +860,10 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -601,12 +879,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F159A0-59ED-468E-8E6C-1AF73D0D5D0C}">
   <dimension ref="B4:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,33 +894,33 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
@@ -716,4 +994,73 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF4D3BD-1797-4D12-ACE0-A1C19F70549C}">
+  <dimension ref="C4:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="9" style="6"/>
+    <col min="5" max="8" width="45.25" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>